--- a/Zeitraum.xlsx
+++ b/Zeitraum.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="50">
   <si>
     <t>2. Woche</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Platformen (ToDoIst, Github, Drive,…) eingerichtet, Zeitplanung + Unterlagen bereit</t>
   </si>
   <si>
-    <t>GUI - Kenntnisse vertiefen + Prototyp</t>
-  </si>
-  <si>
     <t xml:space="preserve">Kenntnisse vertiefen + GUI erstellen (Beginnscreen); </t>
   </si>
   <si>
@@ -143,9 +140,6 @@
     <t>GUI + Datenbank abschließen abschließen</t>
   </si>
   <si>
-    <t>Letztes Organisatorisches machen</t>
-  </si>
-  <si>
     <t>#RestlichesMachenGUI</t>
   </si>
   <si>
@@ -171,6 +165,15 @@
   </si>
   <si>
     <t>UML</t>
+  </si>
+  <si>
+    <t>GUI - Kenntnisse vertiefen; Startfensterfertig</t>
+  </si>
+  <si>
+    <t>Aktualisierung:</t>
+  </si>
+  <si>
+    <t>Immer Mittwochs</t>
   </si>
 </sst>
 </file>
@@ -202,7 +205,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -324,11 +327,44 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -352,6 +388,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -666,10 +705,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -679,13 +718,14 @@
     <col min="4" max="4" width="43.77734375" customWidth="1"/>
     <col min="5" max="5" width="24.6640625" customWidth="1"/>
     <col min="6" max="6" width="14.33203125" customWidth="1"/>
+    <col min="10" max="10" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E1" s="10"/>
       <c r="H1" s="10"/>
     </row>
-    <row r="2" spans="1:9" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
@@ -693,28 +733,31 @@
         <v>9</v>
       </c>
       <c r="C2" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D2" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F2" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G2" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="J2" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="15.6" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -725,7 +768,7 @@
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11">
         <v>3</v>
@@ -739,11 +782,14 @@
       <c r="H3" s="11">
         <v>9</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="18">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -751,60 +797,68 @@
         <v>13</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E4" s="2">
         <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G4" s="3">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H4" s="2">
-        <v>10</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="J4" s="19"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
       <c r="D5" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="2">
         <v>7</v>
       </c>
-      <c r="F5" s="2"/>
-      <c r="G5" s="3"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="F5" s="2">
+        <v>4</v>
+      </c>
+      <c r="G5" s="3">
+        <v>4</v>
+      </c>
+      <c r="H5" s="2">
+        <v>8</v>
+      </c>
+      <c r="I5" s="18"/>
+      <c r="J5" s="18"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E6" s="2">
         <v>10</v>
@@ -812,20 +866,21 @@
       <c r="F6" s="2"/>
       <c r="G6" s="3"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I6" s="18"/>
+      <c r="J6" s="18"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C7" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="3" t="s">
         <v>22</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>23</v>
       </c>
       <c r="E7" s="2">
         <v>10</v>
@@ -833,20 +888,21 @@
       <c r="F7" s="2"/>
       <c r="G7" s="3"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I7" s="18"/>
+      <c r="J7" s="18"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D8" s="3" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="2">
         <v>30</v>
@@ -854,9 +910,10 @@
       <c r="F8" s="2"/>
       <c r="G8" s="3"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I8" s="18"/>
+      <c r="J8" s="18"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>6</v>
       </c>
@@ -864,10 +921,10 @@
         <v>14</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E9" s="2">
         <v>10</v>
@@ -875,20 +932,22 @@
       <c r="F9" s="2"/>
       <c r="G9" s="3"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="1"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>35</v>
       </c>
       <c r="E10" s="12">
         <v>5</v>
@@ -896,51 +955,51 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="I10" s="18"/>
+      <c r="J10" s="18"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
         <v>10</v>
       </c>
       <c r="B11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>40</v>
-      </c>
       <c r="E11" s="13" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="F11" s="2"/>
       <c r="G11" s="3"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="I11" s="18"/>
+      <c r="J11" s="18"/>
+    </row>
+    <row r="12" spans="1:11" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C12" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E12" s="14" t="s">
         <v>39</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>41</v>
       </c>
       <c r="F12" s="5"/>
       <c r="G12" s="6"/>
       <c r="H12" s="5"/>
       <c r="I12" s="5"/>
     </row>
-    <row r="13" spans="1:9" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" ht="15" thickTop="1" x14ac:dyDescent="0.3">
       <c r="D13" s="9"/>
       <c r="E13" s="1"/>
     </row>
